--- a/excel/ELT.xlsx
+++ b/excel/ELT.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51004\Repo\praxisnachbereitung-ws25\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B6458B-01D6-4A9C-9B86-B0FBBE04A132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117F50A-2E9E-4E8E-8D56-9E269A9D0DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{7A5C44E6-EF1D-4CFB-884E-408C4A997535}"/>
   </bookViews>
   <sheets>
-    <sheet name="Aus" sheetId="11" r:id="rId1"/>
+    <sheet name="Ausreihen" sheetId="11" r:id="rId1"/>
     <sheet name="Geräte" sheetId="13" r:id="rId2"/>
     <sheet name="Mitarbeiter" sheetId="14" r:id="rId3"/>
     <sheet name="PivotTable" sheetId="17" r:id="rId4"/>
-    <sheet name="Gesamttabelle" sheetId="15" r:id="rId5"/>
-    <sheet name="Laptop" sheetId="16" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="19" r:id="rId5"/>
+    <sheet name="Gesamttabelle" sheetId="15" r:id="rId6"/>
+    <sheet name="Laptop" sheetId="16" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Aus!$A$1:$D$46</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Ausreihen!$A$1:$D$46</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Geräte!$A$1:$F$36</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">Gesamttabelle!$A$1:$L$46</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">Gesamttabelle!$A$1:$L$46</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">Mitarbeiter!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="18" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="93">
   <si>
     <t>Gerätenummer</t>
   </si>
@@ -330,13 +331,22 @@
   </si>
   <si>
     <t>Anzahl der Geräte</t>
+  </si>
+  <si>
+    <t>求和项:Netto-Kaufpreis</t>
+  </si>
+  <si>
+    <t>(多项)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="dd\.mm\.yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +368,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -420,44 +438,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
@@ -466,22 +475,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -532,10 +550,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -570,7 +594,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PivotTable.xlsx]PivotTable!数据透视表1</c:name>
+    <c:name>[ELT.xlsx]PivotTable!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -626,7 +650,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -746,6 +770,62 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1274,7 +1354,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PivotTable.xlsx]PivotTable!数据透视表1</c:name>
+    <c:name>[ELT.xlsx]PivotTable!数据透视表1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3074,37 +3154,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="王天成" refreshedDate="45969.601600462964" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="45" xr:uid="{D2524C67-4D19-428A-A83D-2A74943DF71B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="王天成" refreshedDate="45969.647160763889" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="45" xr:uid="{D2524C67-4D19-428A-A83D-2A74943DF71B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Gesamttabelle"/>
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="Gerätenummer" numFmtId="0">
-      <sharedItems count="23">
-        <s v="G0035"/>
-        <s v="G0005"/>
-        <s v="G0016"/>
-        <s v="G0004"/>
-        <s v="G0021"/>
-        <s v="G0024"/>
-        <s v="G0006"/>
-        <s v="G0009"/>
-        <s v="G0007"/>
-        <s v="G0011"/>
-        <s v="G0028"/>
-        <s v="G0013"/>
-        <s v="G0029"/>
-        <s v="G0015"/>
-        <s v="G0022"/>
-        <s v="G0018"/>
-        <s v="G0031"/>
-        <s v="G0027"/>
-        <s v="G0030"/>
-        <s v="G0025"/>
-        <s v="G0032"/>
-        <s v="G0014"/>
-        <s v="G0033"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Mitarbeiter-ID" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1012"/>
@@ -3113,7 +3169,38 @@
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-12-01T00:00:00" maxDate="2025-10-01T00:00:00"/>
     </cacheField>
     <cacheField name="Rückgabe am" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-06-27T00:00:00" maxDate="2025-10-06T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-06-27T00:00:00" maxDate="2025-10-06T00:00:00" count="30">
+        <m/>
+        <d v="2025-06-09T00:00:00"/>
+        <d v="2025-09-08T00:00:00"/>
+        <d v="2025-05-31T00:00:00"/>
+        <d v="2025-10-05T00:00:00"/>
+        <d v="2025-07-30T00:00:00"/>
+        <d v="2025-09-22T00:00:00"/>
+        <d v="2025-06-10T00:00:00"/>
+        <d v="2025-07-15T00:00:00"/>
+        <d v="2025-07-16T00:00:00"/>
+        <d v="2025-08-29T00:00:00"/>
+        <d v="2025-03-16T00:00:00"/>
+        <d v="2024-12-04T00:00:00"/>
+        <d v="2024-06-27T00:00:00"/>
+        <d v="2025-02-26T00:00:00"/>
+        <d v="2025-10-04T00:00:00"/>
+        <d v="2025-08-17T00:00:00"/>
+        <d v="2025-09-30T00:00:00"/>
+        <d v="2025-01-06T00:00:00"/>
+        <d v="2024-11-27T00:00:00"/>
+        <d v="2025-07-01T00:00:00"/>
+        <d v="2025-09-05T00:00:00"/>
+        <d v="2024-09-24T00:00:00"/>
+        <d v="2025-08-02T00:00:00"/>
+        <d v="2025-03-03T00:00:00"/>
+        <d v="2025-08-12T00:00:00"/>
+        <d v="2025-05-07T00:00:00"/>
+        <d v="2025-09-25T00:00:00"/>
+        <d v="2025-07-08T00:00:00"/>
+        <d v="2025-10-02T00:00:00"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Gerätetyp" numFmtId="0">
       <sharedItems count="6">
@@ -3165,10 +3252,10 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
   <r>
-    <x v="0"/>
+    <s v="G0035"/>
     <n v="1009"/>
     <d v="2024-05-09T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="0"/>
     <s v="BenQ MW550"/>
     <d v="2024-01-03T00:00:00"/>
@@ -3180,10 +3267,10 @@
     <n v="14460.649999999998"/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="G0005"/>
     <n v="1009"/>
     <d v="2024-04-07T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2021-11-03T00:00:00"/>
@@ -3195,10 +3282,10 @@
     <m/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="G0035"/>
     <n v="1001"/>
     <d v="2024-01-06T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="0"/>
     <s v="BenQ MW550"/>
     <d v="2024-01-03T00:00:00"/>
@@ -3210,10 +3297,10 @@
     <m/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="G0035"/>
     <n v="1003"/>
     <d v="2024-05-05T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="0"/>
     <s v="BenQ MW550"/>
     <d v="2024-01-03T00:00:00"/>
@@ -3225,10 +3312,10 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <s v="G0016"/>
     <n v="1003"/>
     <d v="2024-02-08T00:00:00"/>
-    <d v="2025-06-09T00:00:00"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2023-03-30T00:00:00"/>
@@ -3240,10 +3327,10 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <s v="G0004"/>
     <n v="1003"/>
     <d v="2025-06-19T00:00:00"/>
-    <d v="2025-09-08T00:00:00"/>
+    <x v="2"/>
     <x v="2"/>
     <s v="Dell XPS"/>
     <d v="2025-05-05T00:00:00"/>
@@ -3255,10 +3342,10 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <s v="G0016"/>
     <n v="1002"/>
     <d v="2025-05-22T00:00:00"/>
-    <d v="2025-05-31T00:00:00"/>
+    <x v="3"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2023-03-30T00:00:00"/>
@@ -3270,10 +3357,10 @@
     <m/>
   </r>
   <r>
-    <x v="4"/>
+    <s v="G0021"/>
     <n v="1008"/>
     <d v="2025-09-30T00:00:00"/>
-    <d v="2025-10-05T00:00:00"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Samsung Curved"/>
     <d v="2023-02-22T00:00:00"/>
@@ -3285,10 +3372,10 @@
     <m/>
   </r>
   <r>
-    <x v="5"/>
+    <s v="G0024"/>
     <n v="1008"/>
     <d v="2024-03-24T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="3"/>
     <s v="Dell UltraSharp"/>
     <d v="2022-03-01T00:00:00"/>
@@ -3300,10 +3387,10 @@
     <m/>
   </r>
   <r>
-    <x v="5"/>
+    <s v="G0024"/>
     <n v="1005"/>
     <d v="2025-03-27T00:00:00"/>
-    <d v="2025-07-30T00:00:00"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Dell UltraSharp"/>
     <d v="2022-03-01T00:00:00"/>
@@ -3315,10 +3402,10 @@
     <m/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="G0005"/>
     <n v="1006"/>
     <d v="2025-08-23T00:00:00"/>
-    <d v="2025-09-22T00:00:00"/>
+    <x v="6"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2021-11-03T00:00:00"/>
@@ -3330,10 +3417,10 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <s v="G0016"/>
     <n v="1010"/>
     <d v="2025-07-28T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2023-03-30T00:00:00"/>
@@ -3345,10 +3432,10 @@
     <m/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="G0006"/>
     <n v="1012"/>
     <d v="2025-05-31T00:00:00"/>
-    <d v="2025-06-10T00:00:00"/>
+    <x v="7"/>
     <x v="4"/>
     <s v="Samsung S21"/>
     <d v="2024-01-01T00:00:00"/>
@@ -3360,10 +3447,10 @@
     <m/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="G0005"/>
     <n v="1012"/>
     <d v="2024-11-03T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2021-11-03T00:00:00"/>
@@ -3375,10 +3462,10 @@
     <m/>
   </r>
   <r>
-    <x v="7"/>
+    <s v="G0009"/>
     <n v="1011"/>
     <d v="2025-07-12T00:00:00"/>
-    <d v="2025-07-15T00:00:00"/>
+    <x v="8"/>
     <x v="2"/>
     <s v="Dell XPS"/>
     <d v="2023-04-10T00:00:00"/>
@@ -3390,10 +3477,10 @@
     <m/>
   </r>
   <r>
-    <x v="8"/>
+    <s v="G0007"/>
     <n v="1001"/>
     <d v="2024-09-09T00:00:00"/>
-    <d v="2025-07-16T00:00:00"/>
+    <x v="9"/>
     <x v="2"/>
     <s v="Lenovo ThinkPad"/>
     <d v="2021-06-13T00:00:00"/>
@@ -3405,10 +3492,10 @@
     <m/>
   </r>
   <r>
-    <x v="8"/>
+    <s v="G0007"/>
     <n v="1001"/>
     <d v="2025-08-11T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="2"/>
     <s v="Lenovo ThinkPad"/>
     <d v="2021-06-13T00:00:00"/>
@@ -3420,10 +3507,10 @@
     <m/>
   </r>
   <r>
-    <x v="9"/>
+    <s v="G0011"/>
     <n v="1005"/>
     <d v="2025-06-29T00:00:00"/>
-    <d v="2025-08-29T00:00:00"/>
+    <x v="10"/>
     <x v="1"/>
     <s v="Brother HL"/>
     <d v="2025-09-09T00:00:00"/>
@@ -3435,10 +3522,10 @@
     <m/>
   </r>
   <r>
-    <x v="10"/>
+    <s v="G0028"/>
     <n v="1004"/>
     <d v="2024-08-19T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="0"/>
     <s v="Epson EB"/>
     <d v="2023-01-19T00:00:00"/>
@@ -3450,10 +3537,10 @@
     <m/>
   </r>
   <r>
-    <x v="10"/>
+    <s v="G0028"/>
     <n v="1006"/>
     <d v="2024-12-04T00:00:00"/>
-    <d v="2025-03-16T00:00:00"/>
+    <x v="11"/>
     <x v="0"/>
     <s v="Epson EB"/>
     <d v="2023-01-19T00:00:00"/>
@@ -3465,10 +3552,10 @@
     <m/>
   </r>
   <r>
-    <x v="10"/>
+    <s v="G0028"/>
     <n v="1003"/>
     <d v="2024-10-30T00:00:00"/>
-    <d v="2024-12-04T00:00:00"/>
+    <x v="12"/>
     <x v="0"/>
     <s v="Epson EB"/>
     <d v="2023-01-19T00:00:00"/>
@@ -3480,10 +3567,10 @@
     <m/>
   </r>
   <r>
-    <x v="11"/>
+    <s v="G0013"/>
     <n v="1012"/>
     <d v="2024-05-07T00:00:00"/>
-    <d v="2024-06-27T00:00:00"/>
+    <x v="13"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2021-05-16T00:00:00"/>
@@ -3495,10 +3582,10 @@
     <m/>
   </r>
   <r>
-    <x v="11"/>
+    <s v="G0013"/>
     <n v="1009"/>
     <d v="2024-01-28T00:00:00"/>
-    <d v="2025-02-26T00:00:00"/>
+    <x v="14"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2021-05-16T00:00:00"/>
@@ -3510,10 +3597,10 @@
     <m/>
   </r>
   <r>
-    <x v="12"/>
+    <s v="G0029"/>
     <n v="1002"/>
     <d v="2025-09-21T00:00:00"/>
-    <d v="2025-10-04T00:00:00"/>
+    <x v="15"/>
     <x v="2"/>
     <s v="Lenovo ThinkPad"/>
     <d v="2021-05-21T00:00:00"/>
@@ -3525,10 +3612,10 @@
     <m/>
   </r>
   <r>
-    <x v="13"/>
+    <s v="G0015"/>
     <n v="1010"/>
     <d v="2024-03-26T00:00:00"/>
-    <d v="2025-08-17T00:00:00"/>
+    <x v="16"/>
     <x v="4"/>
     <s v="iPhone 13"/>
     <d v="2022-09-20T00:00:00"/>
@@ -3540,10 +3627,10 @@
     <m/>
   </r>
   <r>
-    <x v="13"/>
+    <s v="G0015"/>
     <n v="1002"/>
     <d v="2024-08-15T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="4"/>
     <s v="iPhone 13"/>
     <d v="2022-09-20T00:00:00"/>
@@ -3555,10 +3642,10 @@
     <m/>
   </r>
   <r>
-    <x v="14"/>
+    <s v="G0022"/>
     <n v="1002"/>
     <d v="2025-08-30T00:00:00"/>
-    <d v="2025-09-30T00:00:00"/>
+    <x v="17"/>
     <x v="5"/>
     <s v="iPad"/>
     <d v="2024-08-20T00:00:00"/>
@@ -3570,10 +3657,10 @@
     <m/>
   </r>
   <r>
-    <x v="14"/>
+    <s v="G0022"/>
     <n v="1002"/>
     <d v="2024-07-20T00:00:00"/>
-    <d v="2025-01-06T00:00:00"/>
+    <x v="18"/>
     <x v="5"/>
     <s v="iPad"/>
     <d v="2024-08-20T00:00:00"/>
@@ -3585,10 +3672,10 @@
     <m/>
   </r>
   <r>
-    <x v="15"/>
+    <s v="G0018"/>
     <n v="1011"/>
     <d v="2024-10-03T00:00:00"/>
-    <d v="2024-11-27T00:00:00"/>
+    <x v="19"/>
     <x v="5"/>
     <s v="iPad"/>
     <d v="2022-10-05T00:00:00"/>
@@ -3600,10 +3687,10 @@
     <m/>
   </r>
   <r>
-    <x v="16"/>
+    <s v="G0031"/>
     <n v="1004"/>
     <d v="2024-01-29T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="2"/>
     <s v="HP EliteBook"/>
     <d v="2025-04-28T00:00:00"/>
@@ -3615,10 +3702,10 @@
     <m/>
   </r>
   <r>
-    <x v="16"/>
+    <s v="G0031"/>
     <n v="1004"/>
     <d v="2024-02-14T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="2"/>
     <s v="HP EliteBook"/>
     <d v="2025-04-28T00:00:00"/>
@@ -3630,10 +3717,10 @@
     <m/>
   </r>
   <r>
-    <x v="17"/>
+    <s v="G0027"/>
     <n v="1004"/>
     <d v="2024-04-21T00:00:00"/>
-    <d v="2025-07-01T00:00:00"/>
+    <x v="20"/>
     <x v="3"/>
     <s v="Samsung Curved"/>
     <d v="2022-07-24T00:00:00"/>
@@ -3645,10 +3732,10 @@
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <s v="G0030"/>
     <n v="1012"/>
     <d v="2025-05-15T00:00:00"/>
-    <d v="2025-09-05T00:00:00"/>
+    <x v="21"/>
     <x v="0"/>
     <s v="Epson EB"/>
     <d v="2022-03-27T00:00:00"/>
@@ -3660,10 +3747,10 @@
     <m/>
   </r>
   <r>
-    <x v="18"/>
+    <s v="G0030"/>
     <n v="1005"/>
     <d v="2023-12-01T00:00:00"/>
-    <d v="2024-09-24T00:00:00"/>
+    <x v="22"/>
     <x v="0"/>
     <s v="Epson EB"/>
     <d v="2022-03-27T00:00:00"/>
@@ -3675,10 +3762,10 @@
     <m/>
   </r>
   <r>
-    <x v="19"/>
+    <s v="G0025"/>
     <n v="1005"/>
     <d v="2025-01-18T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="0"/>
     <s v="Epson EB"/>
     <d v="2023-12-06T00:00:00"/>
@@ -3690,10 +3777,10 @@
     <m/>
   </r>
   <r>
-    <x v="20"/>
+    <s v="G0032"/>
     <n v="1003"/>
     <d v="2024-08-04T00:00:00"/>
-    <d v="2025-08-02T00:00:00"/>
+    <x v="23"/>
     <x v="2"/>
     <s v="Lenovo ThinkPad"/>
     <d v="2022-11-11T00:00:00"/>
@@ -3705,10 +3792,10 @@
     <m/>
   </r>
   <r>
-    <x v="21"/>
+    <s v="G0014"/>
     <n v="1001"/>
     <d v="2024-11-26T00:00:00"/>
-    <d v="2025-03-03T00:00:00"/>
+    <x v="24"/>
     <x v="2"/>
     <s v="Lenovo ThinkPad"/>
     <d v="2021-03-03T00:00:00"/>
@@ -3720,10 +3807,10 @@
     <m/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="G0035"/>
     <n v="1001"/>
     <d v="2024-12-15T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="0"/>
     <s v="BenQ MW550"/>
     <d v="2024-01-03T00:00:00"/>
@@ -3735,10 +3822,10 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <s v="G0004"/>
     <n v="1001"/>
     <d v="2025-08-11T00:00:00"/>
-    <d v="2025-08-12T00:00:00"/>
+    <x v="25"/>
     <x v="2"/>
     <s v="Dell XPS"/>
     <d v="2025-05-05T00:00:00"/>
@@ -3750,10 +3837,10 @@
     <m/>
   </r>
   <r>
-    <x v="22"/>
+    <s v="G0033"/>
     <n v="1009"/>
     <d v="2025-03-24T00:00:00"/>
-    <d v="2025-05-07T00:00:00"/>
+    <x v="26"/>
     <x v="0"/>
     <s v="BenQ MW550"/>
     <d v="2022-03-03T00:00:00"/>
@@ -3765,10 +3852,10 @@
     <m/>
   </r>
   <r>
-    <x v="22"/>
+    <s v="G0033"/>
     <n v="1002"/>
     <d v="2025-03-25T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="0"/>
     <s v="BenQ MW550"/>
     <d v="2022-03-03T00:00:00"/>
@@ -3780,10 +3867,10 @@
     <m/>
   </r>
   <r>
-    <x v="1"/>
+    <s v="G0005"/>
     <n v="1010"/>
     <d v="2025-08-30T00:00:00"/>
-    <d v="2025-09-25T00:00:00"/>
+    <x v="27"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2021-11-03T00:00:00"/>
@@ -3795,10 +3882,10 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <s v="G0016"/>
     <n v="1007"/>
     <d v="2025-05-18T00:00:00"/>
-    <d v="2025-07-08T00:00:00"/>
+    <x v="28"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2023-03-30T00:00:00"/>
@@ -3810,10 +3897,10 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <s v="G0016"/>
     <n v="1010"/>
     <d v="2025-05-31T00:00:00"/>
-    <d v="2025-10-02T00:00:00"/>
+    <x v="29"/>
     <x v="1"/>
     <s v="Canon Pixma"/>
     <d v="2023-03-30T00:00:00"/>
@@ -3825,10 +3912,10 @@
     <m/>
   </r>
   <r>
-    <x v="6"/>
+    <s v="G0006"/>
     <n v="1007"/>
     <d v="2024-07-03T00:00:00"/>
-    <m/>
+    <x v="0"/>
     <x v="4"/>
     <s v="Samsung S21"/>
     <d v="2024-01-01T00:00:00"/>
@@ -3843,37 +3930,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA75E60D-7CA0-4A63-99FA-967448FD18B1}" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="Gesamt" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Gerätetyp" colHeaderCaption="Geräte_Standort">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA75E60D-7CA0-4A63-99FA-967448FD18B1}" name="数据透视表1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="Gesamt" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Gerätetyp" colHeaderCaption="Geräte_Standort">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
-    <pivotField dataField="1" showAll="0">
-      <items count="24">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="21"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="15"/>
-        <item x="4"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="19"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -3950,7 +4010,7 @@
   <dataFields count="1">
     <dataField name="Anzahl der Geräte" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="7">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4020,7 +4080,106 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EC59EAE-DEE6-4213-9655-42144A5D4B3D}" name="数据透视表2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="31">
+        <item x="13"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="29"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="4" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="求和项:Netto-Kaufpreis" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4101,9 +4260,9 @@
   <autoFilter ref="A1:D46" xr:uid="{945DBD2D-3BE7-42D6-AF7A-B78280D9BD76}"/>
   <tableColumns count="4">
     <tableColumn id="5" xr3:uid="{DA4AD0F5-B12C-4E50-BC98-0CBA549E73E2}" uniqueName="5" name="Gerätenummer" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{108D8E0E-7290-4782-B440-417677A74FBE}" uniqueName="2" name="Mitarbeiter-ID" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{E539D635-D860-440A-B0DF-AF4C5AB8AB17}" uniqueName="3" name="Ausgabe am" queryTableFieldId="3" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{6687BFE5-CD39-440E-8345-965AAAA9FD06}" uniqueName="4" name="Rückgabe am" queryTableFieldId="4" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{108D8E0E-7290-4782-B440-417677A74FBE}" uniqueName="2" name="Mitarbeiter-ID" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E539D635-D860-440A-B0DF-AF4C5AB8AB17}" uniqueName="3" name="Ausgabe am" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{6687BFE5-CD39-440E-8345-965AAAA9FD06}" uniqueName="4" name="Rückgabe am" queryTableFieldId="4" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4113,12 +4272,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9412D4FB-3A8C-40F5-9305-C52B906461BF}" name="Geraete" displayName="Geraete" ref="A1:F36" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F36" xr:uid="{9412D4FB-3A8C-40F5-9305-C52B906461BF}"/>
   <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{0D035A88-0B0D-4910-AA70-050D460A6265}" uniqueName="7" name="Gerätenummer" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D3C4BA80-DAC0-4D81-B0AF-E345EF3331F0}" uniqueName="2" name="Gerätetyp" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BE74E6A9-1EDC-4DD3-A339-BFF6775219A9}" uniqueName="3" name="Modell" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4B854D04-6583-4820-BA1E-EFD9CE1F0086}" uniqueName="4" name="Kaufdatum" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0D035A88-0B0D-4910-AA70-050D460A6265}" uniqueName="7" name="Gerätenummer" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{D3C4BA80-DAC0-4D81-B0AF-E345EF3331F0}" uniqueName="2" name="Gerätetyp" queryTableFieldId="2" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{BE74E6A9-1EDC-4DD3-A339-BFF6775219A9}" uniqueName="3" name="Modell" queryTableFieldId="3" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{4B854D04-6583-4820-BA1E-EFD9CE1F0086}" uniqueName="4" name="Kaufdatum" queryTableFieldId="4" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{A55DA5F3-A292-43F3-8832-94729107C772}" uniqueName="5" name="Netto-Kaufpreis" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{254A9F71-F143-4CAE-AF55-260CDCE780D0}" uniqueName="6" name="Standort" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{254A9F71-F143-4CAE-AF55-260CDCE780D0}" uniqueName="6" name="Standort" queryTableFieldId="6" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4128,10 +4287,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BBB0C38B-0F9E-476D-841A-DC2E56AD697E}" name="Mitarbeiter" displayName="Mitarbeiter" ref="A1:D13" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D13" xr:uid="{BBB0C38B-0F9E-476D-841A-DC2E56AD697E}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{099BAB80-A6D3-41E3-822A-5272CA4EE2AD}" uniqueName="5" name="Mitarbeiter-ID" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{576EB52A-7C17-4257-9425-3A1C52EB3CF4}" uniqueName="2" name="Name" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{652E81FD-699A-4D81-9276-638C3D92A41F}" uniqueName="3" name="Abteilung" queryTableFieldId="3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{EC67C231-7675-407D-88E2-A57B3F938C83}" uniqueName="4" name="Standort" queryTableFieldId="4" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{099BAB80-A6D3-41E3-822A-5272CA4EE2AD}" uniqueName="5" name="Mitarbeiter-ID" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{576EB52A-7C17-4257-9425-3A1C52EB3CF4}" uniqueName="2" name="Name" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{652E81FD-699A-4D81-9276-638C3D92A41F}" uniqueName="3" name="Abteilung" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{EC67C231-7675-407D-88E2-A57B3F938C83}" uniqueName="4" name="Standort" queryTableFieldId="4" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4141,19 +4300,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{357A371E-1690-4014-9593-C44EBDF37AFB}" name="Gesamttabelle" displayName="Gesamttabelle" ref="A1:M46" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:M46" xr:uid="{357A371E-1690-4014-9593-C44EBDF37AFB}"/>
   <tableColumns count="13">
-    <tableColumn id="13" xr3:uid="{205F3B6B-5722-4A46-986A-967D0F7D0327}" uniqueName="13" name="Gerätenummer" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{205F3B6B-5722-4A46-986A-967D0F7D0327}" uniqueName="13" name="Gerätenummer" queryTableFieldId="1" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{CAC18065-9910-415D-B34F-25538E8D7E3D}" uniqueName="2" name="Mitarbeiter-ID" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{5754DB74-075E-467B-909F-5B557E6DF3AD}" uniqueName="3" name="Ausgabe am" queryTableFieldId="3" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{45330DDD-9CF1-47BE-AECE-32E787F70FF8}" uniqueName="4" name="Rückgabe am" queryTableFieldId="4" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{C0660EDD-F065-4C0A-B907-757D522BFB42}" uniqueName="5" name="Gerätetyp" queryTableFieldId="5" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{EC9DE047-ED89-4EB2-A15E-40D12ADF170F}" uniqueName="6" name="Modell" queryTableFieldId="6" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{D26A6C5B-9D1B-4A8D-883C-3A39BD24CBE3}" uniqueName="7" name="Kaufdatum" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5754DB74-075E-467B-909F-5B557E6DF3AD}" uniqueName="3" name="Ausgabe am" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{45330DDD-9CF1-47BE-AECE-32E787F70FF8}" uniqueName="4" name="Rückgabe am" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C0660EDD-F065-4C0A-B907-757D522BFB42}" uniqueName="5" name="Gerätetyp" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{EC9DE047-ED89-4EB2-A15E-40D12ADF170F}" uniqueName="6" name="Modell" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D26A6C5B-9D1B-4A8D-883C-3A39BD24CBE3}" uniqueName="7" name="Kaufdatum" queryTableFieldId="7" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{9D649A77-3F4E-4BA0-9892-E1800AEA242E}" uniqueName="8" name="Netto-Kaufpreis" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{B3C12051-E9F3-4942-8841-B1F5DC8B885E}" uniqueName="9" name="Geräte_Standort" queryTableFieldId="9" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{A080F475-9387-4DDD-8554-0771167660C7}" uniqueName="10" name="Name" queryTableFieldId="10" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{8A3C71AE-8CED-4A44-BA8E-2EE29DACEA7D}" uniqueName="11" name="Abteilung" queryTableFieldId="11" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{674FFE03-CE3B-4B97-9408-B4CBC6025E7F}" uniqueName="12" name="Mitarbeiter_Standort" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{90939160-AA25-4D60-85B8-86F508E3EDCF}" uniqueName="14" name="Gesamtwert nicht im Einsatz" queryTableFieldId="13" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{B3C12051-E9F3-4942-8841-B1F5DC8B885E}" uniqueName="9" name="Geräte_Standort" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{A080F475-9387-4DDD-8554-0771167660C7}" uniqueName="10" name="Name" queryTableFieldId="10" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{8A3C71AE-8CED-4A44-BA8E-2EE29DACEA7D}" uniqueName="11" name="Abteilung" queryTableFieldId="11" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{674FFE03-CE3B-4B97-9408-B4CBC6025E7F}" uniqueName="12" name="Mitarbeiter_Standort" queryTableFieldId="12" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{90939160-AA25-4D60-85B8-86F508E3EDCF}" uniqueName="14" name="Gesamtwert nicht im Einsatz" queryTableFieldId="13" dataDxfId="3">
       <calculatedColumnFormula>SUMIFS(H2:H46, D2:D46, "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4461,51 +4620,51 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>1009</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="13">
         <v>45421</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>1008</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="13">
         <v>45930</v>
       </c>
       <c r="D3" s="1">
@@ -4513,13 +4672,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>1005</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="13">
         <v>45743</v>
       </c>
       <c r="D4" s="1">
@@ -4527,25 +4686,25 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>1010</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="13">
         <v>45866</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>1012</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="13">
         <v>45808</v>
       </c>
       <c r="D6" s="1">
@@ -4553,25 +4712,25 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>1009</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="13">
         <v>45389</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>1011</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="13">
         <v>45850</v>
       </c>
       <c r="D8" s="1">
@@ -4579,13 +4738,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>1005</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="13">
         <v>45837</v>
       </c>
       <c r="D9" s="1">
@@ -4593,25 +4752,25 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>1004</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="13">
         <v>45523</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>1012</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="13">
         <v>45419</v>
       </c>
       <c r="D11" s="1">
@@ -4619,25 +4778,25 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>1008</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="13">
         <v>45375</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>1002</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="13">
         <v>45921</v>
       </c>
       <c r="D13" s="1">
@@ -4645,13 +4804,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>1006</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="13">
         <v>45892</v>
       </c>
       <c r="D14" s="1">
@@ -4659,13 +4818,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>1010</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="13">
         <v>45377</v>
       </c>
       <c r="D15" s="1">
@@ -4673,37 +4832,37 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>1012</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="13">
         <v>45599</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>1002</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="13">
         <v>45519</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>1002</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="13">
         <v>45899</v>
       </c>
       <c r="D18" s="1">
@@ -4711,13 +4870,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>1011</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="13">
         <v>45568</v>
       </c>
       <c r="D19" s="1">
@@ -4725,37 +4884,37 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>1003</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="13">
         <v>45417</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>1004</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="13">
         <v>45320</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>1004</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="13">
         <v>45403</v>
       </c>
       <c r="D22" s="1">
@@ -4763,13 +4922,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>1006</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="13">
         <v>45630</v>
       </c>
       <c r="D23" s="1">
@@ -4777,13 +4936,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>1012</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="13">
         <v>45792</v>
       </c>
       <c r="D24" s="1">
@@ -4791,13 +4950,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>1001</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="13">
         <v>45544</v>
       </c>
       <c r="D25" s="1">
@@ -4805,13 +4964,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>1002</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="14">
         <v>45493</v>
       </c>
       <c r="D26" s="1">
@@ -4819,13 +4978,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>1009</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="13">
         <v>45319</v>
       </c>
       <c r="D27" s="1">
@@ -4833,13 +4992,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>1003</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="13">
         <v>45595</v>
       </c>
       <c r="D28" s="1">
@@ -4847,13 +5006,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>1002</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="13">
         <v>45799</v>
       </c>
       <c r="D29" s="1">
@@ -4861,37 +5020,37 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>1001</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="13">
         <v>45880</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>1001</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="13">
         <v>45297</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>1003</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="13">
         <v>45330</v>
       </c>
       <c r="D32" s="1">
@@ -4899,25 +5058,25 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>1004</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="13">
         <v>45336</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>1003</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="13">
         <v>45827</v>
       </c>
       <c r="D34" s="1">
@@ -4925,25 +5084,25 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>1005</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="13">
         <v>45675</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>1005</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="13">
         <v>45261</v>
       </c>
       <c r="D36" s="1">
@@ -4951,13 +5110,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>1003</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="13">
         <v>45508</v>
       </c>
       <c r="D37" s="1">
@@ -4965,13 +5124,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>1001</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="13">
         <v>45622</v>
       </c>
       <c r="D38" s="1">
@@ -4979,25 +5138,25 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>1001</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="13">
         <v>45641</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>1001</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="13">
         <v>45880</v>
       </c>
       <c r="D40" s="1">
@@ -5005,13 +5164,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>1009</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="13">
         <v>45740</v>
       </c>
       <c r="D41" s="1">
@@ -5019,25 +5178,25 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>1002</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="13">
         <v>45741</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>1010</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="13">
         <v>45899</v>
       </c>
       <c r="D43" s="1">
@@ -5045,13 +5204,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>1007</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="13">
         <v>45795</v>
       </c>
       <c r="D44" s="1">
@@ -5059,13 +5218,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>1010</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="13">
         <v>45808</v>
       </c>
       <c r="D45" s="1">
@@ -5073,13 +5232,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>1007</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="13">
         <v>45476</v>
       </c>
       <c r="D46" s="1"/>
@@ -5112,673 +5271,673 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>44937</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1342.83</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>44250</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>1076.18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>45543</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>1931.54</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="1">
         <v>45782</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>1007.88</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="1">
         <v>44503</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>823.23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>45292</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>1257.96</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="1">
         <v>44360</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>869.09</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="1">
         <v>45831</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>1323.76</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>45026</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>1458.02</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>45239</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>1786.37</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="1">
         <v>45909</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>1417.1</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="1">
         <v>44713</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>968.43</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>44332</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>1898.65</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="1">
         <v>44258</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>1415.97</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="1">
         <v>44824</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>661.44</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="1">
         <v>45015</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>1501.06</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="1">
         <v>44363</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>1748.56</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="1">
         <v>44839</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>1688.07</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="1">
         <v>44429</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>737.57</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="1">
         <v>45297</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>740.2</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="1">
         <v>44979</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>1134.1600000000001</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="1">
         <v>45524</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>1591.98</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="1">
         <v>45249</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>1335.34</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="1">
         <v>44621</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>750.91</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="1">
         <v>45266</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>545.46</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="1">
         <v>45219</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>1403.91</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="1">
         <v>44766</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>501.64</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="1">
         <v>44945</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>1246.58</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="1">
         <v>44337</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>1553.15</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="1">
         <v>44647</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <v>1629.76</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="1">
         <v>45775</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <v>1095.6199999999999</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="1">
         <v>44876</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>1801.36</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="1">
@@ -5787,18 +5946,18 @@
       <c r="E34">
         <v>1212.29</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="1">
@@ -5807,18 +5966,18 @@
       <c r="E35">
         <v>1746.67</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="1">
@@ -5827,7 +5986,7 @@
       <c r="E36">
         <v>644.54</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5857,184 +6016,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>1008</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>1009</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>1010</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>1011</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>1012</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6058,7 +6217,7 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.9140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -6067,15 +6226,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
@@ -6092,111 +6251,111 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="15">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="15">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="15">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="15">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="15">
         <v>18</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="15">
         <v>16</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="15">
         <v>45</v>
       </c>
     </row>
@@ -6208,11 +6367,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495A3562-E9AC-4C6F-9DDA-F2B0BF06CB90}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>9113.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCDD7C3-9520-41E7-83FE-109439FB457E}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6233,40 +6438,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>87</v>
       </c>
       <c r="M1" t="s">
@@ -6274,161 +6479,158 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>1009</v>
       </c>
       <c r="C2" s="1">
         <v>45421</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="1">
         <v>45294</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>644.54</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="2">
-        <f t="shared" ref="M2:M46" si="0">SUMIFS(H2:H46, D2:D46, "")</f>
+      <c r="M2">
+        <f t="shared" ref="M2" si="0">SUMIFS(H2:H46, D2:D46, "")</f>
         <v>14460.649999999998</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>1009</v>
       </c>
       <c r="C3" s="1">
         <v>45389</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="1">
         <v>44503</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>823.23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>1001</v>
       </c>
       <c r="C4" s="1">
         <v>45297</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="1">
         <v>45294</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>644.54</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>1003</v>
       </c>
       <c r="C5" s="1">
         <v>45417</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>66</v>
       </c>
       <c r="G5" s="1">
         <v>45294</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>644.54</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>1003</v>
       </c>
       <c r="C6" s="1">
@@ -6437,37 +6639,36 @@
       <c r="D6" s="1">
         <v>45817</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="1">
         <v>45015</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>1501.06</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>1003</v>
       </c>
       <c r="C7" s="1">
@@ -6476,37 +6677,36 @@
       <c r="D7" s="1">
         <v>45908</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="1">
         <v>45782</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>1007.88</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>1002</v>
       </c>
       <c r="C8" s="1">
@@ -6515,37 +6715,36 @@
       <c r="D8" s="1">
         <v>45808</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="1">
         <v>45015</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>1501.06</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>1008</v>
       </c>
       <c r="C9" s="1">
@@ -6554,74 +6753,72 @@
       <c r="D9" s="1">
         <v>45935</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>44979</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>1134.1600000000001</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>1008</v>
       </c>
       <c r="C10" s="1">
         <v>45375</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="1">
         <v>44621</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>750.91</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>1005</v>
       </c>
       <c r="C11" s="1">
@@ -6630,37 +6827,36 @@
       <c r="D11" s="1">
         <v>45868</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="1">
         <v>44621</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>750.91</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>1006</v>
       </c>
       <c r="C12" s="1">
@@ -6669,74 +6865,72 @@
       <c r="D12" s="1">
         <v>45922</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="1">
         <v>44503</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>823.23</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>1010</v>
       </c>
       <c r="C13" s="1">
         <v>45866</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="1">
         <v>45015</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>1501.06</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>1012</v>
       </c>
       <c r="C14" s="1">
@@ -6745,74 +6939,72 @@
       <c r="D14" s="1">
         <v>45818</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="1">
         <v>45292</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>1257.96</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>1012</v>
       </c>
       <c r="C15" s="1">
         <v>45599</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="1">
         <v>44503</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>823.23</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>1011</v>
       </c>
       <c r="C16" s="1">
@@ -6821,34 +7013,33 @@
       <c r="D16" s="1">
         <v>45853</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="1">
         <v>45026</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>1458.02</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17">
@@ -6860,10 +7051,10 @@
       <c r="D17" s="1">
         <v>45854</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="1">
@@ -6872,22 +7063,21 @@
       <c r="H17">
         <v>869.09</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
@@ -6897,10 +7087,10 @@
         <v>45880</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="1">
@@ -6909,22 +7099,21 @@
       <c r="H18">
         <v>869.09</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19">
@@ -6936,10 +7125,10 @@
       <c r="D19" s="1">
         <v>45898</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>53</v>
       </c>
       <c r="G19" s="1">
@@ -6948,22 +7137,21 @@
       <c r="H19">
         <v>1417.1</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20">
@@ -6973,10 +7161,10 @@
         <v>45523</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="1">
@@ -6985,22 +7173,21 @@
       <c r="H20">
         <v>1246.58</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21">
@@ -7012,10 +7199,10 @@
       <c r="D21" s="1">
         <v>45732</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="1">
@@ -7024,22 +7211,21 @@
       <c r="H21">
         <v>1246.58</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22">
@@ -7051,10 +7237,10 @@
       <c r="D22" s="1">
         <v>45630</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="1">
@@ -7063,22 +7249,21 @@
       <c r="H22">
         <v>1246.58</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" t="s">
         <v>48</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23">
@@ -7090,10 +7275,10 @@
       <c r="D23" s="1">
         <v>45470</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="1">
@@ -7102,22 +7287,21 @@
       <c r="H23">
         <v>1898.65</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24">
@@ -7129,10 +7313,10 @@
       <c r="D24" s="1">
         <v>45714</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="1">
@@ -7141,22 +7325,21 @@
       <c r="H24">
         <v>1898.65</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" t="s">
         <v>48</v>
       </c>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25">
@@ -7168,10 +7351,10 @@
       <c r="D25" s="1">
         <v>45934</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="1">
@@ -7180,22 +7363,21 @@
       <c r="H25">
         <v>1553.15</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26">
@@ -7207,10 +7389,10 @@
       <c r="D26" s="1">
         <v>45886</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="1">
@@ -7219,22 +7401,21 @@
       <c r="H26">
         <v>661.44</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27">
@@ -7244,10 +7425,10 @@
         <v>45519</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>55</v>
       </c>
       <c r="G27" s="1">
@@ -7256,22 +7437,21 @@
       <c r="H27">
         <v>661.44</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" t="s">
         <v>72</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" t="s">
         <v>35</v>
       </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
       <c r="B28">
@@ -7283,10 +7463,10 @@
       <c r="D28" s="1">
         <v>45930</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="1">
@@ -7295,22 +7475,21 @@
       <c r="H28">
         <v>1591.98</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" t="s">
         <v>72</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
       <c r="B29">
@@ -7322,10 +7501,10 @@
       <c r="D29" s="1">
         <v>45663</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="1">
@@ -7334,22 +7513,21 @@
       <c r="H29">
         <v>1591.98</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
       <c r="B30">
@@ -7361,10 +7539,10 @@
       <c r="D30" s="1">
         <v>45623</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="1">
@@ -7373,22 +7551,21 @@
       <c r="H30">
         <v>1688.07</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
       <c r="B31">
@@ -7398,10 +7575,10 @@
         <v>45320</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="1">
@@ -7410,22 +7587,21 @@
       <c r="H31">
         <v>1095.6199999999999</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" t="s">
         <v>75</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" t="s">
         <v>48</v>
       </c>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
       <c r="B32">
@@ -7435,10 +7611,10 @@
         <v>45336</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="1">
@@ -7447,22 +7623,21 @@
       <c r="H32">
         <v>1095.6199999999999</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" t="s">
         <v>75</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" t="s">
         <v>48</v>
       </c>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
       <c r="B33">
@@ -7474,10 +7649,10 @@
       <c r="D33" s="1">
         <v>45839</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
         <v>61</v>
       </c>
       <c r="G33" s="1">
@@ -7486,22 +7661,21 @@
       <c r="H33">
         <v>501.64</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" t="s">
         <v>75</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" t="s">
         <v>76</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" t="s">
         <v>48</v>
       </c>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
       <c r="B34">
@@ -7513,10 +7687,10 @@
       <c r="D34" s="1">
         <v>45905</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
         <v>51</v>
       </c>
       <c r="G34" s="1">
@@ -7525,22 +7699,21 @@
       <c r="H34">
         <v>1629.76</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" t="s">
         <v>71</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" t="s">
         <v>38</v>
       </c>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>20</v>
       </c>
       <c r="B35">
@@ -7552,10 +7725,10 @@
       <c r="D35" s="1">
         <v>45559</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" t="s">
         <v>51</v>
       </c>
       <c r="G35" s="1">
@@ -7564,22 +7737,21 @@
       <c r="H35">
         <v>1629.76</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" t="s">
         <v>77</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" t="s">
         <v>76</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
@@ -7589,10 +7761,10 @@
         <v>45675</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="2" t="s">
+      <c r="E36" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>51</v>
       </c>
       <c r="G36" s="1">
@@ -7601,22 +7773,21 @@
       <c r="H36">
         <v>545.46</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" t="s">
         <v>77</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" t="s">
         <v>76</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
       <c r="B37">
@@ -7628,10 +7799,10 @@
       <c r="D37" s="1">
         <v>45871</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" t="s">
         <v>47</v>
       </c>
       <c r="G37" s="1">
@@ -7640,22 +7811,21 @@
       <c r="H37">
         <v>1801.36</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" t="s">
         <v>74</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" t="s">
         <v>48</v>
       </c>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
       <c r="B38">
@@ -7667,10 +7837,10 @@
       <c r="D38" s="1">
         <v>45719</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="1">
@@ -7679,22 +7849,21 @@
       <c r="H38">
         <v>1415.97</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" t="s">
         <v>48</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" t="s">
         <v>70</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" t="s">
         <v>35</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39">
@@ -7704,10 +7873,10 @@
         <v>45641</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>66</v>
       </c>
       <c r="G39" s="1">
@@ -7716,22 +7885,21 @@
       <c r="H39">
         <v>644.54</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" t="s">
         <v>70</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" t="s">
         <v>35</v>
       </c>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>22</v>
       </c>
       <c r="B40">
@@ -7743,10 +7911,10 @@
       <c r="D40" s="1">
         <v>45881</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="1">
@@ -7755,22 +7923,21 @@
       <c r="H40">
         <v>1007.88</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" t="s">
         <v>70</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" t="s">
         <v>71</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>26</v>
       </c>
       <c r="B41">
@@ -7782,10 +7949,10 @@
       <c r="D41" s="1">
         <v>45784</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>66</v>
       </c>
       <c r="G41" s="1">
@@ -7794,22 +7961,21 @@
       <c r="H41">
         <v>1212.29</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" t="s">
         <v>35</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" t="s">
         <v>81</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" t="s">
         <v>82</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" t="s">
         <v>48</v>
       </c>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
       <c r="B42">
@@ -7819,10 +7985,10 @@
         <v>45741</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>66</v>
       </c>
       <c r="G42" s="1">
@@ -7831,22 +7997,21 @@
       <c r="H42">
         <v>1212.29</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" t="s">
         <v>72</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" t="s">
         <v>71</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" t="s">
         <v>35</v>
       </c>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43">
@@ -7858,10 +8023,10 @@
       <c r="D43" s="1">
         <v>45925</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>44</v>
       </c>
       <c r="G43" s="1">
@@ -7870,22 +8035,21 @@
       <c r="H43">
         <v>823.23</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" t="s">
         <v>35</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" t="s">
         <v>83</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" t="s">
         <v>71</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" t="s">
         <v>48</v>
       </c>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44">
@@ -7897,10 +8061,10 @@
       <c r="D44" s="1">
         <v>45846</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" t="s">
         <v>44</v>
       </c>
       <c r="G44" s="1">
@@ -7909,22 +8073,21 @@
       <c r="H44">
         <v>1501.06</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" t="s">
         <v>35</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" t="s">
         <v>79</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" t="s">
         <v>71</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" t="s">
         <v>35</v>
       </c>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45">
@@ -7936,10 +8099,10 @@
       <c r="D45" s="1">
         <v>45932</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" t="s">
         <v>44</v>
       </c>
       <c r="G45" s="1">
@@ -7948,22 +8111,21 @@
       <c r="H45">
         <v>1501.06</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" t="s">
         <v>83</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" t="s">
         <v>71</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" t="s">
         <v>48</v>
       </c>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46">
@@ -7973,10 +8135,10 @@
         <v>45476</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>46</v>
       </c>
       <c r="G46" s="1">
@@ -7985,30 +8147,30 @@
       <c r="H46">
         <v>1257.96</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" t="s">
         <v>38</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" t="s">
         <v>79</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" t="s">
         <v>71</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" t="s">
         <v>35</v>
       </c>
-      <c r="M46" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3766B39-4C3C-4F90-A1C8-1FF449D790DA}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -8024,414 +8186,414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="2">
         <v>1003</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>45827</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>45908</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>45782</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="2">
         <v>1007.88</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="3">
         <v>1011</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>45850</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>45853</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>45026</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="3">
         <v>1458.02</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1001</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>45544</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>45854</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>44360</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>869.09</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1001</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>45880</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>44360</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>869.09</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1002</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>45921</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>45934</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>44337</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>1553.15</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1004</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>45320</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>45775</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>1095.6199999999999</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1004</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>45336</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>45775</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>1095.6199999999999</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1003</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>45508</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>45871</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>44876</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>1801.36</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1001</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>45622</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>45719</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>44258</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>1415.97</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>1001</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>45880</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>45881</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <v>45782</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1007.88</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
